--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.010000000000002</v>
+        <v>-7.862</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.964</v>
+        <v>-11.002</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.965999999999999</v>
+        <v>-7.356</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.556</v>
+        <v>-7.323</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.872</v>
+        <v>-13.529</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -659,10 +659,10 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.914</v>
+        <v>-12.888</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.842000000000001</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.416</v>
+        <v>-11.888</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.972</v>
+        <v>-12.771</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-8.085999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.777999999999999</v>
+        <v>-7.401999999999998</v>
       </c>
     </row>
     <row r="25">
@@ -799,10 +799,10 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.674</v>
+        <v>-11.985</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.010000000000001</v>
+        <v>-7.530999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.728</v>
+        <v>-12.486</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.138</v>
+        <v>-12.288</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.892</v>
+        <v>-7.516999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.702</v>
+        <v>-12.428</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.972</v>
+        <v>-8.088999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.536</v>
+        <v>-12.401</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.026</v>
+        <v>-7.763</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.37</v>
+        <v>-12.835</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.274000000000001</v>
+        <v>-7.904000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.73</v>
+        <v>-8.097</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.122000000000002</v>
+        <v>-7.896000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.968</v>
+        <v>-13.585</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.504</v>
+        <v>-13.643</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.970000000000001</v>
+        <v>-7.577</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.273999999999999</v>
+        <v>-7.789</v>
       </c>
     </row>
     <row r="68">
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.158</v>
+        <v>-11.105</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.404</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="74">
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-12.994</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.316</v>
+        <v>-12.296</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.35</v>
+        <v>-7.486</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.488</v>
+        <v>-8.282999999999998</v>
       </c>
     </row>
     <row r="81">
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.452</v>
+        <v>-11.9</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.3</v>
+        <v>-13.268</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.078</v>
+        <v>-7.376</v>
       </c>
     </row>
     <row r="92">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.13</v>
+        <v>-10.818</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1793,10 +1793,10 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.972</v>
+        <v>-12.008</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.010000000000001</v>
+        <v>-7.597</v>
       </c>
     </row>
     <row r="98">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.278</v>
+        <v>-7.968000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-8.136000000000001</v>
+        <v>-7.790999999999999</v>
       </c>
     </row>
     <row r="105">
